--- a/test-data/TestData_And_Validation.xlsx
+++ b/test-data/TestData_And_Validation.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="116">
   <si>
     <t>Car Loan Amount</t>
   </si>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,6 +498,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1295,7 +1349,7 @@
       <c r="E2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="306" t="s">
+      <c r="F2" s="360" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1315,7 +1369,7 @@
       <c r="E3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="307" t="s">
+      <c r="F3" s="361" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1335,7 +1389,7 @@
       <c r="E4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="308" t="s">
+      <c r="F4" s="362" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1355,7 +1409,7 @@
       <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="309" t="s">
+      <c r="F5" s="363" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1391,7 +1445,7 @@
       <c r="E7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="310" t="s">
+      <c r="F7" s="364" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1411,7 +1465,7 @@
       <c r="E8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="311" t="s">
+      <c r="F8" s="365" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1447,7 +1501,7 @@
       <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="312" t="s">
+      <c r="F10" s="366" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1467,7 +1521,7 @@
       <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="313" t="s">
+      <c r="F11" s="367" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1487,7 +1541,7 @@
       <c r="E12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="314" t="s">
+      <c r="F12" s="368" t="s">
         <v>40</v>
       </c>
     </row>

--- a/test-data/TestData_And_Validation.xlsx
+++ b/test-data/TestData_And_Validation.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="116">
   <si>
     <t>Car Loan Amount</t>
   </si>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,6 +498,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1349,7 +1376,7 @@
       <c r="E2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="360" t="s">
+      <c r="F2" s="387" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1369,7 +1396,7 @@
       <c r="E3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="361" t="s">
+      <c r="F3" s="388" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1389,7 +1416,7 @@
       <c r="E4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="362" t="s">
+      <c r="F4" s="389" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1409,7 +1436,7 @@
       <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="363" t="s">
+      <c r="F5" s="390" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1445,7 +1472,7 @@
       <c r="E7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="364" t="s">
+      <c r="F7" s="391" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1465,7 +1492,7 @@
       <c r="E8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="365" t="s">
+      <c r="F8" s="392" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1501,7 +1528,7 @@
       <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="366" t="s">
+      <c r="F10" s="393" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1521,7 +1548,7 @@
       <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="367" t="s">
+      <c r="F11" s="394" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1541,7 +1568,7 @@
       <c r="E12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="368" t="s">
+      <c r="F12" s="395" t="s">
         <v>40</v>
       </c>
     </row>
